--- a/python_Proyect/Resultados/Resumen_estimadores.xlsx
+++ b/python_Proyect/Resultados/Resumen_estimadores.xlsx
@@ -477,14 +477,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chao1_Chao_1984</t>
+          <t>Bootstrap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316.496</v>
+        <v>316.3668</v>
       </c>
       <c r="C4" t="n">
-        <v>96.05176684697437</v>
+        <v>96.09099311305738</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>95.27346762395088</v>
+        <v>95.28654304597855</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Resumen_estimadores.xlsx
+++ b/python_Proyect/Resultados/Resumen_estimadores.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,16 +28,27 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFD8B8"/>
+        <bgColor rgb="00BFD8B8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -51,14 +62,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,82 +463,95 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Estimador</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Individuos_estimados</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Efectividad_%</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Observadas</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>304</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Chao1_bc</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>315.896</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>96.23420366196468</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Bootstrap</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>316.3668</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3" t="n">
         <v>96.09099311305738</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>2nd_order_jackknife</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>325.014</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>93.53443236291361</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Promedio efectividad</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>95.28654304597855</v>
       </c>
     </row>

--- a/python_Proyect/Resultados/Resumen_estimadores.xlsx
+++ b/python_Proyect/Resultados/Resumen_estimadores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>316.3668</v>
+        <v>317.47888</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>96.09099311305738</v>
+        <v>95.75440104866189</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>95.28654304597855</v>
+        <v>95.17434569118006</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Resumen_estimadores.xlsx
+++ b/python_Proyect/Resultados/Resumen_estimadores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>317.47888</v>
+        <v>316.47225</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>95.75440104866189</v>
+        <v>96.05897515500965</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>95.17434569118006</v>
+        <v>95.27587039329597</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Resumen_estimadores.xlsx
+++ b/python_Proyect/Resultados/Resumen_estimadores.xlsx
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>316.47225</v>
+        <v>316.75943</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>96.05897515500965</v>
+        <v>95.97188629869677</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>95.27587039329597</v>
+        <v>95.24684077452503</v>
       </c>
     </row>
   </sheetData>
